--- a/biology/Médecine/Téléphonie_mobile,_sommes-nous_tous_des_cobayes__/Téléphonie_mobile,_sommes-nous_tous_des_cobayes__.xlsx
+++ b/biology/Médecine/Téléphonie_mobile,_sommes-nous_tous_des_cobayes__/Téléphonie_mobile,_sommes-nous_tous_des_cobayes__.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>T%C3%A9l%C3%A9phonie_mobile,_sommes-nous_tous_des_cobayes_%3F</t>
+          <t>Téléphonie_mobile,_sommes-nous_tous_des_cobayes_?</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Téléphonie mobile, sommes-nous tous des cobayes ? est un documentaire de 52 minutes réalisé par Joaquina Ferreira sorti en 2005. 
 Il traite du danger sanitaire représenté par la nocivité des ondes émises par la téléphonie mobile et les incidences des antennes-relais sur les riverains.
 Il avance en particulier que les industriels et les autorités publiques renoncent à appliquer le « principe de précaution ».
-Il estime de plus que dénoncer les risques potentiels des portables pour la santé est « mission impossible » à la télévision[1].
+Il estime de plus que dénoncer les risques potentiels des portables pour la santé est « mission impossible » à la télévision.
 </t>
         </is>
       </c>
@@ -497,7 +509,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>T%C3%A9l%C3%A9phonie_mobile,_sommes-nous_tous_des_cobayes_%3F</t>
+          <t>Téléphonie_mobile,_sommes-nous_tous_des_cobayes_?</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -516,6 +528,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -523,7 +537,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>T%C3%A9l%C3%A9phonie_mobile,_sommes-nous_tous_des_cobayes_%3F</t>
+          <t>Téléphonie_mobile,_sommes-nous_tous_des_cobayes_?</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,6 +556,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
